--- a/life/2019tax.adjust.xlsx
+++ b/life/2019tax.adjust.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="16840"/>
+    <workbookView windowWidth="28000" windowHeight="16140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,9 +91,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -124,6 +124,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -132,8 +146,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,6 +185,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -155,6 +208,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -163,6 +223,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -171,52 +246,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,28 +255,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,14 +267,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -283,13 +283,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,25 +319,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,139 +463,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,21 +492,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -526,16 +511,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,6 +536,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,148 +579,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1062,8 +1062,8 @@
   <sheetPr/>
   <dimension ref="B1:XFA37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C22"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.8"/>
@@ -1221,11 +1221,11 @@
         <v>11</v>
       </c>
       <c r="C13" s="3">
-        <v>75000</v>
+        <v>85000</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" ref="D13:D22" si="3">C13+D12</f>
-        <v>225000</v>
+        <v>235000</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" ref="E13:E22" si="4">E12+$F$6</f>
@@ -1241,19 +1241,19 @@
       </c>
       <c r="H13" s="1">
         <f t="shared" si="0"/>
-        <v>187710</v>
+        <v>197710</v>
       </c>
       <c r="I13" s="4">
         <f>ROUND(MAX(H13*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
-        <v>20622</v>
+        <v>22622</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="1"/>
-        <v>10628</v>
+        <v>12628</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" si="2"/>
-        <v>60942</v>
+        <v>68942</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="15.2" spans="2:11">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="D14" s="1">
         <f t="shared" si="3"/>
-        <v>310000</v>
+        <v>320000</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="4"/>
@@ -1281,11 +1281,11 @@
       </c>
       <c r="H14" s="1">
         <f t="shared" si="0"/>
-        <v>260280</v>
+        <v>270280</v>
       </c>
       <c r="I14" s="4">
         <f>ROUND(MAX(H14*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
-        <v>35136</v>
+        <v>37136</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="1"/>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="D15" s="1">
         <f t="shared" si="3"/>
-        <v>395000</v>
+        <v>405000</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="4"/>
@@ -1321,19 +1321,19 @@
       </c>
       <c r="H15" s="1">
         <f t="shared" si="0"/>
-        <v>332850</v>
+        <v>342850</v>
       </c>
       <c r="I15" s="4">
         <f>ROUND(MAX(H15*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
-        <v>51292.5</v>
+        <v>53792.5</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="1"/>
-        <v>16156.5</v>
+        <v>16656.5</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" si="2"/>
-        <v>65413.5</v>
+        <v>64913.5</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="15.2" spans="2:11">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="D16" s="1">
         <f t="shared" si="3"/>
-        <v>480000</v>
+        <v>490000</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="4"/>
@@ -1361,11 +1361,11 @@
       </c>
       <c r="H16" s="1">
         <f t="shared" si="0"/>
-        <v>405420</v>
+        <v>415420</v>
       </c>
       <c r="I16" s="4">
         <f>ROUND(MAX(H16*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
-        <v>69435</v>
+        <v>71935</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="1"/>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="D17" s="1">
         <f t="shared" si="3"/>
-        <v>565000</v>
+        <v>575000</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="4"/>
@@ -1401,19 +1401,19 @@
       </c>
       <c r="H17" s="1">
         <f t="shared" si="0"/>
-        <v>477990</v>
+        <v>487990</v>
       </c>
       <c r="I17" s="4">
         <f>ROUND(MAX(H17*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
-        <v>90477</v>
+        <v>93477</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="1"/>
-        <v>21042</v>
+        <v>21542</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" si="2"/>
-        <v>60528</v>
+        <v>60028</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="15.2" spans="2:11">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="D18" s="1">
         <f t="shared" si="3"/>
-        <v>650000</v>
+        <v>660000</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="4"/>
@@ -1441,11 +1441,11 @@
       </c>
       <c r="H18" s="1">
         <f t="shared" si="0"/>
-        <v>550560</v>
+        <v>560560</v>
       </c>
       <c r="I18" s="4">
         <f>ROUND(MAX(H18*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
-        <v>112248</v>
+        <v>115248</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" si="1"/>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="D19" s="1">
         <f t="shared" si="3"/>
-        <v>735000</v>
+        <v>745000</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="4"/>
@@ -1481,11 +1481,11 @@
       </c>
       <c r="H19" s="1">
         <f t="shared" si="0"/>
-        <v>623130</v>
+        <v>633130</v>
       </c>
       <c r="I19" s="4">
         <f>ROUND(MAX(H19*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
-        <v>134019</v>
+        <v>137019</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="1"/>
@@ -1505,7 +1505,7 @@
       </c>
       <c r="D20" s="1">
         <f t="shared" si="3"/>
-        <v>820000</v>
+        <v>830000</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="4"/>
@@ -1521,19 +1521,19 @@
       </c>
       <c r="H20" s="1">
         <f t="shared" si="0"/>
-        <v>695700</v>
+        <v>705700</v>
       </c>
       <c r="I20" s="4">
         <f>ROUND(MAX(H20*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
-        <v>157575</v>
+        <v>161075</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="1"/>
-        <v>23556</v>
+        <v>24056</v>
       </c>
       <c r="K20" s="1">
         <f t="shared" si="2"/>
-        <v>58014</v>
+        <v>57514</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="15.2" spans="2:11">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="D21" s="1">
         <f t="shared" si="3"/>
-        <v>905000</v>
+        <v>915000</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="4"/>
@@ -1561,11 +1561,11 @@
       </c>
       <c r="H21" s="1">
         <f t="shared" si="0"/>
-        <v>768270</v>
+        <v>778270</v>
       </c>
       <c r="I21" s="4">
         <f>ROUND(MAX(H21*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
-        <v>182974.5</v>
+        <v>186474.5</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="1"/>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="D22" s="1">
         <f t="shared" si="3"/>
-        <v>990000</v>
+        <v>1000000</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="4"/>
@@ -1601,11 +1601,11 @@
       </c>
       <c r="H22" s="1">
         <f t="shared" si="0"/>
-        <v>840840</v>
+        <v>850840</v>
       </c>
       <c r="I22" s="4">
         <f>ROUND(MAX(H22*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
-        <v>208374</v>
+        <v>211874</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="1"/>
@@ -1622,7 +1622,7 @@
       </c>
       <c r="K23" s="5">
         <f>SUM(K11:K22)</f>
-        <v>740466</v>
+        <v>746966</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="22" spans="10:16381">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="K24" s="5">
         <f>K23/12</f>
-        <v>61705.5</v>
+        <v>62247.1666666667</v>
       </c>
       <c r="XFA24" s="2"/>
     </row>
